--- a/src-tkeasygui/src-tkeasygui/ch3/report_all_2024_10.xlsx
+++ b/src-tkeasygui/src-tkeasygui/ch3/report_all_2024_10.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/21</t>
         </is>
       </c>
       <c r="C3" s="12" t="n"/>

--- a/src-tkeasygui/src-tkeasygui/ch3/report_all_2024_10.xlsx
+++ b/src-tkeasygui/src-tkeasygui/ch3/report_all_2024_10.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>2024/04/21</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C3" s="12" t="n"/>
